--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\nodejs-csv-postgresql-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hidden-brushlands-73748\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -563,11 +563,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
